--- a/Компетенции.xlsx
+++ b/Компетенции.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E29A0-84FA-4346-B188-027725C9BF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100B37F-8119-433F-ADDA-ABF5C5B11849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>УК-1</t>
   </si>
@@ -368,13 +368,37 @@
   </si>
   <si>
     <t>Владеть: методами поиска и отбора литературы, наиболее соответствующей заданной тематике. Уметь: составлять библиографический список по заданной тематике. Знать: государственные стандарты в области оформления библиографических ссылок и списков. Владеть методами анализа периодической литературы и интернет-ресурсов В (ПК-24) –II Уметь: отобрать наиболее соответствующие проблеме материалы, характеризующие различные подходы и авторские позиции; конспектировать основные тезисы, раскрывающие замысел автора, его позицию; интегрировать собранные материалы в единый содержательный блок. Знать: правила и методы конспектирования, составления, компедиумов, иллюстрирующих научный/практический взгляд на исследуемую проблему.</t>
+  </si>
+  <si>
+    <t>экономика</t>
+  </si>
+  <si>
+    <t>правоведение</t>
+  </si>
+  <si>
+    <t>русский</t>
+  </si>
+  <si>
+    <t>философия</t>
+  </si>
+  <si>
+    <t>история</t>
+  </si>
+  <si>
+    <t>системный анализ</t>
+  </si>
+  <si>
+    <t>математическое</t>
+  </si>
+  <si>
+    <t>моднлирование</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -406,8 +430,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +449,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -433,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -445,6 +482,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -665,68 +705,88 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="BD43" sqref="BD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -737,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -749,7 +809,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -762,7 +822,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -775,7 +835,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -787,18 +847,28 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -809,7 +879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -820,7 +890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -832,7 +902,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -843,7 +913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>

--- a/Компетенции.xlsx
+++ b/Компетенции.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100B37F-8119-433F-ADDA-ABF5C5B11849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B14609-6A63-4FF7-812E-7C51F7AFCB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>УК-1</t>
   </si>
@@ -379,12 +379,6 @@
     <t>русский</t>
   </si>
   <si>
-    <t>философия</t>
-  </si>
-  <si>
-    <t>история</t>
-  </si>
-  <si>
     <t>системный анализ</t>
   </si>
   <si>
@@ -392,13 +386,37 @@
   </si>
   <si>
     <t>моднлирование</t>
+  </si>
+  <si>
+    <t>философии</t>
+  </si>
+  <si>
+    <t>истории</t>
+  </si>
+  <si>
+    <t>В книге дается систематическое изложение основных тем философии в ясной и живой форме. Она может служить универсальным учебным пособием по философии - для студентов и преподавателей высшей школы, для учащихся и учителей старших классов средних учебных заведений. В конце книги даются задачи и упражнения по философии. Книга может быть полезна всем, кто интересуется философией, кто ценит мысль, понимает ее значение для жизни.</t>
+  </si>
+  <si>
+    <t>В данном учебном пособии систематизировано излагаются современные представления по экономике и рынку в условиях развивающейся мировой системы. В работе освещены основные экономические понятия, классификации, основные теоретические подходы, а также специфика международных экономических отношений. Учебное пособие предназначено для студентов факультета подготовки специалистов для судебной системы (юридический факультет) по направлению подготовки 030900 Юриспруденция (квалификация Бакалавр).</t>
+  </si>
+  <si>
+    <t>Рассматриваются проблемы уязвимости информации в современных компьютерных системах, анализируются и классифицируются угрозы безопасности информации, конкретизируются задачи систем ее обеспечения, дается обзор методов, технических приемов и аппаратуры защиты информации. Основное внимание уделяется проблемам распознавания пользователей, методам защиты от компьютерных вирусов, защите информации в вычислительных сетях, организационно-правовому обеспечению безопасности информации. Излагаются некоторые методы и этапы построения комплексной системы защиты информации, а также перспективы создания изначально защищенных информационных технологий. Для оптимизации процесса контроля знаний к учебнику прилагается комплект тестовых заданий из 25 вариантов. Для студентов изучающих курс «Информационная безопасность и защита информации», также может быть полезна аспирантам и специалистам, интересующимся вопросами защиты информации.</t>
+  </si>
+  <si>
+    <t>Философия</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Информационная безопасность</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -437,6 +455,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -470,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -485,6 +509,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -706,12 +731,12 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -722,11 +747,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -737,11 +767,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -754,7 +789,12 @@
       <c r="D3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -858,13 +898,13 @@
         <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="G11" s="9"/>
     </row>

--- a/Компетенции.xlsx
+++ b/Компетенции.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B14609-6A63-4FF7-812E-7C51F7AFCB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246E895-60F2-4AD4-B79C-7BBCE588892C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -394,15 +394,6 @@
     <t>истории</t>
   </si>
   <si>
-    <t>В книге дается систематическое изложение основных тем философии в ясной и живой форме. Она может служить универсальным учебным пособием по философии - для студентов и преподавателей высшей школы, для учащихся и учителей старших классов средних учебных заведений. В конце книги даются задачи и упражнения по философии. Книга может быть полезна всем, кто интересуется философией, кто ценит мысль, понимает ее значение для жизни.</t>
-  </si>
-  <si>
-    <t>В данном учебном пособии систематизировано излагаются современные представления по экономике и рынку в условиях развивающейся мировой системы. В работе освещены основные экономические понятия, классификации, основные теоретические подходы, а также специфика международных экономических отношений. Учебное пособие предназначено для студентов факультета подготовки специалистов для судебной системы (юридический факультет) по направлению подготовки 030900 Юриспруденция (квалификация Бакалавр).</t>
-  </si>
-  <si>
-    <t>Рассматриваются проблемы уязвимости информации в современных компьютерных системах, анализируются и классифицируются угрозы безопасности информации, конкретизируются задачи систем ее обеспечения, дается обзор методов, технических приемов и аппаратуры защиты информации. Основное внимание уделяется проблемам распознавания пользователей, методам защиты от компьютерных вирусов, защите информации в вычислительных сетях, организационно-правовому обеспечению безопасности информации. Излагаются некоторые методы и этапы построения комплексной системы защиты информации, а также перспективы создания изначально защищенных информационных технологий. Для оптимизации процесса контроля знаний к учебнику прилагается комплект тестовых заданий из 25 вариантов. Для студентов изучающих курс «Информационная безопасность и защита информации», также может быть полезна аспирантам и специалистам, интересующимся вопросами защиты информации.</t>
-  </si>
-  <si>
     <t>Философия</t>
   </si>
   <si>
@@ -410,6 +401,15 @@
   </si>
   <si>
     <t>Информационная безопасность</t>
+  </si>
+  <si>
+    <t>Философия В книге дается систематическое изложение основных тем философии в ясной и живой форме. Она может служить универсальным учебным пособием по философии - для студентов и преподавателей высшей школы, для учащихся и учителей старших классов средних учебных заведений. В конце книги даются задачи и упражнения по философии. Книга может быть полезна всем, кто интересуется философией, кто ценит мысль, понимает ее значение для жизни.</t>
+  </si>
+  <si>
+    <t>Экономика В данном учебном пособии систематизировано излагаются современные представления по экономике и рынку в условиях развивающейся мировой системы. В работе освещены основные экономические понятия, классификации, основные теоретические подходы, а также специфика международных экономических отношений. Учебное пособие предназначено для студентов факультета подготовки специалистов для судебной системы (юридический факультет) по направлению подготовки 030900 Юриспруденция (квалификация Бакалавр).</t>
+  </si>
+  <si>
+    <t>Информационная безопасность Рассматриваются проблемы уязвимости информации в современных компьютерных системах, анализируются и классифицируются угрозы безопасности информации, конкретизируются задачи систем ее обеспечения, дается обзор методов, технических приемов и аппаратуры защиты информации. Основное внимание уделяется проблемам распознавания пользователей, методам защиты от компьютерных вирусов, защите информации в вычислительных сетях, организационно-правовому обеспечению безопасности информации. Излагаются некоторые методы и этапы построения комплексной системы защиты информации, а также перспективы создания изначально защищенных информационных технологий. Для оптимизации процесса контроля знаний к учебнику прилагается комплект тестовых заданий из 25 вариантов. Для студентов изучающих курс «Информационная безопасность и защита информации», также может быть полезна аспирантам и специалистам, интересующимся вопросами защиты информации.</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -750,10 +750,10 @@
         <v>108</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -770,10 +770,10 @@
         <v>109</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>102</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Компетенции.xlsx
+++ b/Компетенции.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246E895-60F2-4AD4-B79C-7BBCE588892C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C79C5E-84E1-44FD-9A1F-B7045C05E09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>УК-1</t>
   </si>
@@ -368,48 +368,6 @@
   </si>
   <si>
     <t>Владеть: методами поиска и отбора литературы, наиболее соответствующей заданной тематике. Уметь: составлять библиографический список по заданной тематике. Знать: государственные стандарты в области оформления библиографических ссылок и списков. Владеть методами анализа периодической литературы и интернет-ресурсов В (ПК-24) –II Уметь: отобрать наиболее соответствующие проблеме материалы, характеризующие различные подходы и авторские позиции; конспектировать основные тезисы, раскрывающие замысел автора, его позицию; интегрировать собранные материалы в единый содержательный блок. Знать: правила и методы конспектирования, составления, компедиумов, иллюстрирующих научный/практический взгляд на исследуемую проблему.</t>
-  </si>
-  <si>
-    <t>экономика</t>
-  </si>
-  <si>
-    <t>правоведение</t>
-  </si>
-  <si>
-    <t>русский</t>
-  </si>
-  <si>
-    <t>системный анализ</t>
-  </si>
-  <si>
-    <t>математическое</t>
-  </si>
-  <si>
-    <t>моднлирование</t>
-  </si>
-  <si>
-    <t>философии</t>
-  </si>
-  <si>
-    <t>истории</t>
-  </si>
-  <si>
-    <t>Философия</t>
-  </si>
-  <si>
-    <t>Экономика</t>
-  </si>
-  <si>
-    <t>Информационная безопасность</t>
-  </si>
-  <si>
-    <t>Философия В книге дается систематическое изложение основных тем философии в ясной и живой форме. Она может служить универсальным учебным пособием по философии - для студентов и преподавателей высшей школы, для учащихся и учителей старших классов средних учебных заведений. В конце книги даются задачи и упражнения по философии. Книга может быть полезна всем, кто интересуется философией, кто ценит мысль, понимает ее значение для жизни.</t>
-  </si>
-  <si>
-    <t>Экономика В данном учебном пособии систематизировано излагаются современные представления по экономике и рынку в условиях развивающейся мировой системы. В работе освещены основные экономические понятия, классификации, основные теоретические подходы, а также специфика международных экономических отношений. Учебное пособие предназначено для студентов факультета подготовки специалистов для судебной системы (юридический факультет) по направлению подготовки 030900 Юриспруденция (квалификация Бакалавр).</t>
-  </si>
-  <si>
-    <t>Информационная безопасность Рассматриваются проблемы уязвимости информации в современных компьютерных системах, анализируются и классифицируются угрозы безопасности информации, конкретизируются задачи систем ее обеспечения, дается обзор методов, технических приемов и аппаратуры защиты информации. Основное внимание уделяется проблемам распознавания пользователей, методам защиты от компьютерных вирусов, защите информации в вычислительных сетях, организационно-правовому обеспечению безопасности информации. Излагаются некоторые методы и этапы построения комплексной системы защиты информации, а также перспективы создания изначально защищенных информационных технологий. Для оптимизации процесса контроля знаний к учебнику прилагается комплект тестовых заданий из 25 вариантов. Для студентов изучающих курс «Информационная безопасность и защита информации», также может быть полезна аспирантам и специалистам, интересующимся вопросами защиты информации.</t>
   </si>
 </sst>
 </file>
@@ -731,7 +689,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -746,15 +704,9 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -766,15 +718,9 @@
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -786,15 +732,9 @@
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -806,9 +746,7 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -821,9 +759,7 @@
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -897,15 +833,9 @@
       <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">

--- a/Компетенции.xlsx
+++ b/Компетенции.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C79C5E-84E1-44FD-9A1F-B7045C05E09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C4557B-94D4-4ACA-8A4A-D1DBD121BCCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
